--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject43.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject43.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -206,7 +206,7 @@
         <v>0</v>
       </c>
       <c r="AA1" s="0">
-        <v>0</v>
+        <v>0.87553703580610542</v>
       </c>
       <c r="AB1" s="0">
         <v>0</v>
@@ -239,7 +239,7 @@
         <v>0</v>
       </c>
       <c r="AL1" s="0">
-        <v>0</v>
+        <v>0.70598663557535413</v>
       </c>
       <c r="AM1" s="0">
         <v>0</v>
@@ -266,7 +266,7 @@
         <v>0</v>
       </c>
       <c r="AU1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV1" s="0">
         <v>0</v>
@@ -287,7 +287,7 @@
         <v>0</v>
       </c>
       <c r="BB1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC1" s="0">
         <v>0</v>
@@ -326,10 +326,10 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.99322681252559497</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -340,10 +340,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.58613098984786993</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="AQ2" s="0">
-        <v>0</v>
+        <v>0.73655203091819565</v>
       </c>
       <c r="AR2" s="0">
         <v>0</v>
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="BA2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.8206131237141856</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>0.65218286411666981</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>0.67948813420904797</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.86063841493371296</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -723,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="BJ3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK3" s="0">
-        <v>0</v>
+        <v>0.86218405206990945</v>
       </c>
       <c r="BL3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.61409531707333875</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>0.74452846691618424</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>0.72199306298386368</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="0">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="0">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="AR4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="0">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.94153891426821357</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>0.67610259519744609</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.76626627416271054</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="0">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="AL5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="0">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="BN5" s="0">
-        <v>0</v>
+        <v>0.8862784697344428</v>
       </c>
       <c r="BO5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>0.86670710703313969</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.96522711567920805</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.79559211456229106</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="AV6" s="0">
-        <v>0</v>
+        <v>0.63529101675570854</v>
       </c>
       <c r="AW6" s="0">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="BL6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM6" s="0">
         <v>0</v>
       </c>
       <c r="BN6" s="0">
-        <v>0</v>
+        <v>0.8332430136424489</v>
       </c>
       <c r="BO6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.71392285820726209</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.72228407204853262</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.58057463159823108</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0.65277578437130357</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="0">
-        <v>0</v>
+        <v>0.76879396285022783</v>
       </c>
       <c r="AR7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.71940583922666357</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.97598866651325755</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>0.99602637499204816</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.99757209894392407</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS8" s="0">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0.77213249032962783</v>
       </c>
       <c r="H9" s="0">
-        <v>0</v>
+        <v>0.66877745352225038</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="0">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="0">
-        <v>0</v>
+        <v>0.54310562614121427</v>
       </c>
       <c r="AB9" s="0">
         <v>0</v>
@@ -1920,10 +1920,10 @@
         <v>0</v>
       </c>
       <c r="AW9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="0">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="BH9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="0">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="BO9" s="0">
-        <v>0</v>
+        <v>0.61375252662563495</v>
       </c>
       <c r="BP9" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.51726281383385997</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0</v>
+        <v>0.89079100970386826</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="0">
-        <v>0</v>
+        <v>0.51480196629941954</v>
       </c>
       <c r="U10" s="0">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="0">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="AE10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="0">
         <v>0</v>
@@ -2215,16 +2215,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>0</v>
+        <v>0.74609984199485413</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0</v>
+        <v>0.61110285843500023</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.75844298347525285</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="0">
-        <v>0</v>
+        <v>0.70795770037764949</v>
       </c>
       <c r="AB11" s="0">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="BI11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>0</v>
+        <v>0.61198154840837227</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.98727694315090664</v>
       </c>
       <c r="N12" s="0">
-        <v>0</v>
+        <v>0.6597614681261057</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.67019435778749936</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.64134738071786312</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.92687106685050114</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.90118397705801634</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="0">
-        <v>1</v>
+        <v>0.97817421097217272</v>
       </c>
       <c r="X13" s="0">
         <v>0</v>
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0</v>
+        <v>0.53222227196974514</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.73514170047288641</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.63468068832162605</v>
       </c>
       <c r="P14" s="0">
-        <v>0</v>
+        <v>0.67255190553078481</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="AH14" s="0">
-        <v>0</v>
+        <v>0.68091758567353833</v>
       </c>
       <c r="AI14" s="0">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="0">
-        <v>0</v>
+        <v>0.86298233547242642</v>
       </c>
       <c r="BB14" s="0">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="BL14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.80317010783564724</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.79420746299656619</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.90458810120846944</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.69429265718925715</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="AM15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="0">
         <v>0</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="AR15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="0">
         <v>0</v>
@@ -3257,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0</v>
+        <v>0.88970390422441881</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.88782093972767107</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.78037466934243538</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="AX16" s="0">
-        <v>0</v>
+        <v>0.9011953121516284</v>
       </c>
       <c r="AY16" s="0">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="BG16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH16" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.95056510409308381</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.75235562254996269</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="BH17" s="0">
-        <v>0</v>
+        <v>0.84113129234211337</v>
       </c>
       <c r="BI17" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.66846850108685574</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.60609361735040457</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0</v>
+        <v>0.61372666230399031</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.80421613974828765</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="AY18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="0">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="BP18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0</v>
+        <v>0.91368850146770875</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.79790725972304433</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="BC19" s="0">
-        <v>0</v>
+        <v>0.67479167701861154</v>
       </c>
       <c r="BD19" s="0">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="0">
-        <v>0</v>
+        <v>0.91794318245369011</v>
       </c>
       <c r="K20" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.85035661934897544</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.99988027029157944</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.7986990993805525</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.50269270987965098</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.86046480464050612</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.69972993651789117</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="AZ21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="0">
         <v>0</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="BH21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="0">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="BN21" s="0">
-        <v>0</v>
+        <v>0.68527116259236354</v>
       </c>
       <c r="BO21" s="0">
         <v>0</v>
@@ -4511,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.52106750868185348</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="0">
-        <v>0</v>
+        <v>0.62936429912896208</v>
       </c>
       <c r="AD22" s="0">
         <v>0</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN22" s="0">
         <v>0</v>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="BB22" s="0">
-        <v>1</v>
+        <v>0.65251895312777719</v>
       </c>
       <c r="BC22" s="0">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="BK22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL22" s="0">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="0">
-        <v>1</v>
+        <v>0.96820821075310315</v>
       </c>
       <c r="N23" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.62951022888939878</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4729,10 +4729,10 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>0</v>
+        <v>0.60379475784699155</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="AL23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="0">
         <v>0</v>
@@ -4875,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="0">
         <v>0</v>
@@ -4932,16 +4932,16 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0</v>
+        <v>0.72021154142757204</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="AY24" s="0">
-        <v>0</v>
+        <v>0.85210191380940126</v>
       </c>
       <c r="AZ24" s="0">
         <v>0</v>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="BE24" s="0">
-        <v>1</v>
+        <v>0.82454998725378692</v>
       </c>
       <c r="BF24" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0</v>
+        <v>0.80056587177645355</v>
       </c>
       <c r="X25" s="0">
-        <v>0</v>
+        <v>0.61401709846831598</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.57210422723760612</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.58287505867883094</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="BN25" s="0">
-        <v>0</v>
+        <v>0.61946029031716821</v>
       </c>
       <c r="BO25" s="0">
         <v>0</v>
@@ -5305,13 +5305,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="0">
         <v>0</v>
       </c>
       <c r="L26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.71551828197401723</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0</v>
+        <v>0.59475025626389333</v>
       </c>
       <c r="AB26" s="0">
-        <v>0</v>
+        <v>0.7709034105437691</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="0">
         <v>0</v>
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="AQ26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR26" s="0">
         <v>0</v>
@@ -5484,7 +5484,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0</v>
+        <v>0.58547553967468691</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
@@ -5508,13 +5508,13 @@
         <v>0</v>
       </c>
       <c r="I27" s="0">
-        <v>0</v>
+        <v>0.80266758663149929</v>
       </c>
       <c r="J27" s="0">
         <v>0</v>
       </c>
       <c r="K27" s="0">
-        <v>0</v>
+        <v>0.66193751298630032</v>
       </c>
       <c r="L27" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.73941477082326101</v>
       </c>
       <c r="Z27" s="0">
-        <v>0</v>
+        <v>0.6062743451515693</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.52934577329835397</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="AX27" s="0">
-        <v>0</v>
+        <v>0.83451063134168146</v>
       </c>
       <c r="AY27" s="0">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="BM27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN27" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0</v>
+        <v>0.51600740137821877</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.73782391773855938</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="AN28" s="0">
-        <v>0</v>
+        <v>0.93628236402949705</v>
       </c>
       <c r="AO28" s="0">
         <v>0</v>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="AR28" s="0">
-        <v>0</v>
+        <v>0.76406249711657637</v>
       </c>
       <c r="AS28" s="0">
         <v>0</v>
@@ -5959,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="0">
-        <v>0</v>
+        <v>0.52482914283565707</v>
       </c>
       <c r="W29" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0</v>
+        <v>0.90308509275029758</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.59896420369273173</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="BJ29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK29" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0</v>
+        <v>0.77980036313540091</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.82266940050154092</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.93196421841772881</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.56982027601081242</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.59613218540739588</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0</v>
+        <v>0.90379066316961187</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.81629306476261476</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="BJ31" s="0">
-        <v>0</v>
+        <v>0.79251799053675187</v>
       </c>
       <c r="BK31" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.8288533636614932</v>
       </c>
       <c r="AE32" s="0">
-        <v>0</v>
+        <v>0.93314220195845599</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.8013599903155455</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6694,10 +6694,10 @@
         <v>0</v>
       </c>
       <c r="BI32" s="0">
-        <v>0</v>
+        <v>0.51071524944897528</v>
       </c>
       <c r="BJ32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK32" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.82523479754490248</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.67139657406213016</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0</v>
+        <v>0.72273984741356767</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="0">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="BM33" s="0">
-        <v>0</v>
+        <v>0.5384554558042558</v>
       </c>
       <c r="BN33" s="0">
         <v>0</v>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="0">
         <v>0</v>
@@ -6965,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="0">
-        <v>0</v>
+        <v>0.83068972733752511</v>
       </c>
       <c r="O34" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.54079696355711548</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="AO34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP34" s="0">
         <v>0</v>
@@ -7228,25 +7228,25 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0</v>
+        <v>0.62378659400217851</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.9025138390905878</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0</v>
+        <v>0.75338552343786547</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.67053005706077262</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
       </c>
       <c r="AM35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN35" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>0</v>
+        <v>0.51684373562354247</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0</v>
+        <v>0.95489172402098843</v>
       </c>
       <c r="AL36" s="0">
-        <v>0</v>
+        <v>0.92820601779961942</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="AQ36" s="0">
-        <v>0</v>
+        <v>0.68447693268695509</v>
       </c>
       <c r="AR36" s="0">
         <v>0</v>
@@ -7476,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="AU36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV36" s="0">
         <v>0</v>
@@ -7518,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="BI36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ36" s="0">
         <v>0</v>
@@ -7619,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="Z37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.92684308758270606</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0</v>
+        <v>0.81418725721514162</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.90382806937096516</v>
       </c>
       <c r="AM37" s="0">
-        <v>0</v>
+        <v>0.50521708937421872</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="AT37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU37" s="0">
         <v>0</v>
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="BF37" s="0">
-        <v>0</v>
+        <v>0.77952565203670199</v>
       </c>
       <c r="BG37" s="0">
         <v>0</v>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="BI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ37" s="0">
         <v>0</v>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0</v>
+        <v>0.5453053587217529</v>
       </c>
       <c r="B38" s="0">
         <v>0</v>
@@ -7762,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="0">
         <v>0</v>
@@ -7816,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0</v>
+        <v>0.86155389492444545</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.58906817062565442</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.93515081899326979</v>
       </c>
       <c r="AN38" s="0">
-        <v>0</v>
+        <v>0.73382883416307387</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7998,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="0">
         <v>0</v>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" s="0">
         <v>0</v>
@@ -8058,22 +8058,22 @@
         <v>0</v>
       </c>
       <c r="AI39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ39" s="0">
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0</v>
+        <v>0.92788932111207145</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.92659965078952322</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.52165486144439122</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
@@ -8118,13 +8118,13 @@
         <v>0</v>
       </c>
       <c r="BC39" s="0">
-        <v>0</v>
+        <v>0.76767528625735104</v>
       </c>
       <c r="BD39" s="0">
         <v>0</v>
       </c>
       <c r="BE39" s="0">
-        <v>0</v>
+        <v>0.78582677526975797</v>
       </c>
       <c r="BF39" s="0">
         <v>0</v>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="0">
-        <v>0</v>
+        <v>0.65559568609275787</v>
       </c>
       <c r="AC40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0</v>
+        <v>0.74256150564179202</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.78316331876721135</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0.83644449493560713</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.79071936920357433</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8348,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="BK40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL40" s="0">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="AH41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="0">
         <v>0</v>
@@ -8485,16 +8485,16 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0.63657706443034567</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.98248116739122215</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.51285802172117556</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.53687177659941188</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.55047737867031077</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.55344680705518112</v>
       </c>
       <c r="AR42" s="0">
-        <v>0</v>
+        <v>0.72544098733427387</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="0">
-        <v>0</v>
+        <v>0.58011353742698701</v>
       </c>
       <c r="C43" s="0">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="0">
-        <v>0</v>
+        <v>0.67182264504641021</v>
       </c>
       <c r="H43" s="0">
         <v>0</v>
@@ -8855,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="Z43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="0">
         <v>0</v>
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="AG43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH43" s="0">
         <v>0</v>
@@ -8885,7 +8885,7 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="0">
-        <v>0</v>
+        <v>0.67196402097732777</v>
       </c>
       <c r="AK43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.72244894253550518</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.73513744472451692</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8954,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="BG43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH43" s="0">
         <v>0</v>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="0">
         <v>0</v>
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="0">
         <v>0</v>
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="0">
         <v>0</v>
@@ -9067,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="AB44" s="0">
-        <v>0</v>
+        <v>0.89494251920921708</v>
       </c>
       <c r="AC44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0</v>
+        <v>0.69223320630905549</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0</v>
+        <v>0.69072551171499041</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.61631900827404507</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="AZ44" s="0">
-        <v>0</v>
+        <v>0.54741165066460029</v>
       </c>
       <c r="BA44" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>0</v>
+        <v>0.94564230079484535</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.72283478490893027</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.8075731000695332</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9506,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.93462676994978966</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.83639261037013479</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.55743765711160043</v>
       </c>
       <c r="AV46" s="0">
-        <v>0</v>
+        <v>0.92642463656045804</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9575,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="BH46" s="0">
-        <v>0</v>
+        <v>0.51919353174962812</v>
       </c>
       <c r="BI46" s="0">
         <v>0</v>
@@ -9596,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="BO46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP46" s="0">
         <v>0</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" s="0">
         <v>0</v>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.76369462646688402</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.93293939136391901</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0</v>
+        <v>0.61088997406955903</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.78019447221389859</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="0">
-        <v>0</v>
+        <v>0.72639468444361999</v>
       </c>
       <c r="G48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0</v>
+        <v>0.58631046247724761</v>
       </c>
       <c r="AU48" s="0">
-        <v>0</v>
+        <v>0.90596265881485172</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.67750689791494645</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10040,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="0">
         <v>0</v>
@@ -10154,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.97821520386324379</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.86584200100986197</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="BB49" s="0">
-        <v>0</v>
+        <v>0.85135504655070626</v>
       </c>
       <c r="BC49" s="0">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="BN49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO49" s="0">
         <v>0</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="0">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="0">
-        <v>0</v>
+        <v>0.66858296942706308</v>
       </c>
       <c r="Q50" s="0">
         <v>0</v>
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="AA50" s="0">
-        <v>0</v>
+        <v>0.65518600946677941</v>
       </c>
       <c r="AB50" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.77121916438177696</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0</v>
+        <v>0.79710338998759167</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10405,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="BJ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK50" s="0">
         <v>0</v>
@@ -10479,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" s="0">
         <v>0</v>
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="0">
-        <v>0</v>
+        <v>0.51893315186701106</v>
       </c>
       <c r="Y51" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.79474776793969071</v>
       </c>
       <c r="AX51" s="0">
         <v>0</v>
@@ -10581,19 +10581,19 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>0</v>
+        <v>0.51073078549601403</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
       </c>
       <c r="BC51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD51" s="0">
-        <v>0</v>
+        <v>0.75168107836192011</v>
       </c>
       <c r="BE51" s="0">
         <v>0</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52" s="0">
         <v>0</v>
@@ -10763,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="AR52" s="0">
-        <v>0</v>
+        <v>0.76727811582352135</v>
       </c>
       <c r="AS52" s="0">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0</v>
+        <v>0.75290632424948201</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="BP52" s="0">
-        <v>0</v>
+        <v>0.90034364260478195</v>
       </c>
     </row>
     <row r="53">
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" s="0">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="0">
-        <v>0</v>
+        <v>0.82900833194687462</v>
       </c>
       <c r="O53" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0</v>
+        <v>0.85329607094332072</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -10999,10 +10999,10 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.80414258874156319</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11046,7 +11046,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" s="0">
         <v>0</v>
@@ -11109,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="0">
-        <v>1</v>
+        <v>0.57182088346056759</v>
       </c>
       <c r="W54" s="0">
         <v>0</v>
@@ -11190,7 +11190,7 @@
         <v>0</v>
       </c>
       <c r="AW54" s="0">
-        <v>0</v>
+        <v>0.72420875287062381</v>
       </c>
       <c r="AX54" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.68002384186044684</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.79944772892468396</v>
       </c>
       <c r="BD54" s="0">
-        <v>0</v>
+        <v>0.90428064783950379</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="BG54" s="0">
-        <v>0</v>
+        <v>0.85281967256401625</v>
       </c>
       <c r="BH54" s="0">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="S55" s="0">
-        <v>0</v>
+        <v>0.73744211347952215</v>
       </c>
       <c r="T55" s="0">
         <v>0</v>
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="AM55" s="0">
-        <v>0</v>
+        <v>0.57916655832994801</v>
       </c>
       <c r="AN55" s="0">
         <v>0</v>
@@ -11402,25 +11402,25 @@
         <v>0</v>
       </c>
       <c r="AY55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ55" s="0">
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.94111639968962613</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.5603498737870809</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.96122345631486117</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11444,7 +11444,7 @@
         <v>0</v>
       </c>
       <c r="BM55" s="0">
-        <v>0</v>
+        <v>0.82769990744862243</v>
       </c>
       <c r="BN55" s="0">
         <v>0</v>
@@ -11608,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="AY56" s="0">
-        <v>0</v>
+        <v>0.6902209210629856</v>
       </c>
       <c r="AZ56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0</v>
+        <v>0.64022947585351953</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.68039442159056573</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.72377613860751411</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.56636553221446906</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11733,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="0">
-        <v>1</v>
+        <v>0.56058186573153779</v>
       </c>
       <c r="Y57" s="0">
         <v>0</v>
@@ -11778,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="AM57" s="0">
-        <v>0</v>
+        <v>0.76340255897399634</v>
       </c>
       <c r="AN57" s="0">
         <v>0</v>
@@ -11826,10 +11826,10 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.72313179905149649</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.76045313744162812</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11850,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="BK57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL57" s="0">
         <v>0</v>
@@ -11978,7 +11978,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="0">
-        <v>0</v>
+        <v>0.50827255744609912</v>
       </c>
       <c r="AL58" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.75793693882245461</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12044,10 +12044,10 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.65924145366984743</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12121,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="0">
         <v>0</v>
@@ -12202,7 +12202,7 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR59" s="0">
         <v>0</v>
@@ -12235,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="BB59" s="0">
-        <v>0</v>
+        <v>0.73345907917480846</v>
       </c>
       <c r="BC59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.51043745222482384</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0</v>
+        <v>0.6899579902675762</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" s="0">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>0</v>
+        <v>0.84169442575037512</v>
       </c>
       <c r="R60" s="0">
         <v>0</v>
@@ -12342,7 +12342,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60" s="0">
         <v>0</v>
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="AT60" s="0">
-        <v>0</v>
+        <v>0.83229288650887445</v>
       </c>
       <c r="AU60" s="0">
         <v>0</v>
@@ -12453,10 +12453,10 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>0</v>
+        <v>0.56108238285747758</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.92092988628000905</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="0">
         <v>0</v>
@@ -12581,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="AF61" s="0">
-        <v>0</v>
+        <v>0.89871736226672405</v>
       </c>
       <c r="AG61" s="0">
         <v>0</v>
@@ -12593,10 +12593,10 @@
         <v>0</v>
       </c>
       <c r="AJ61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12671,10 +12671,10 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.68412144744750447</v>
       </c>
       <c r="BK61" s="0">
-        <v>0</v>
+        <v>0.53498440767284805</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="0">
         <v>0</v>
@@ -12778,16 +12778,16 @@
         <v>0</v>
       </c>
       <c r="AC62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD62" s="0">
         <v>0</v>
       </c>
       <c r="AE62" s="0">
-        <v>0</v>
+        <v>0.84941216674985387</v>
       </c>
       <c r="AF62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG62" s="0">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="AX62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY62" s="0">
         <v>0</v>
@@ -12871,10 +12871,10 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.57655688523848037</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.9635210840052848</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.84220973008058642</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="0">
-        <v>0</v>
+        <v>0.55050601943599609</v>
       </c>
       <c r="D63" s="0">
         <v>0</v>
@@ -12963,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="V63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W63" s="0">
         <v>0</v>
@@ -13017,7 +13017,7 @@
         <v>0</v>
       </c>
       <c r="AN63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO63" s="0">
         <v>0</v>
@@ -13068,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="BE63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF63" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0</v>
+        <v>0.83748929451610987</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13089,10 +13089,10 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.836338008345899</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" s="0">
         <v>0</v>
@@ -13145,7 +13145,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.66713896928009708</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.73767106104012736</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0</v>
+        <v>0.82875215865479657</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.65066521597981164</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13390,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="AA65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB65" s="0">
         <v>0</v>
@@ -13408,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="AG65" s="0">
-        <v>0</v>
+        <v>0.76939296529213053</v>
       </c>
       <c r="AH65" s="0">
         <v>0</v>
@@ -13474,7 +13474,7 @@
         <v>0</v>
       </c>
       <c r="BC65" s="0">
-        <v>0</v>
+        <v>0.79770738455454682</v>
       </c>
       <c r="BD65" s="0">
         <v>0</v>
@@ -13498,22 +13498,22 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>0</v>
+        <v>0.95772382501379116</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0</v>
+        <v>0.51530611111222457</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65" s="0">
-        <v>0</v>
+        <v>0.99293433991397351</v>
       </c>
     </row>
     <row r="66">
@@ -13530,10 +13530,10 @@
         <v>0</v>
       </c>
       <c r="E66" s="0">
-        <v>0</v>
+        <v>0.76605911098595469</v>
       </c>
       <c r="F66" s="0">
-        <v>0</v>
+        <v>0.79372644654000757</v>
       </c>
       <c r="G66" s="0">
         <v>0</v>
@@ -13578,7 +13578,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="0">
-        <v>0</v>
+        <v>0.79863034015606726</v>
       </c>
       <c r="V66" s="0">
         <v>0</v>
@@ -13590,7 +13590,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="0">
-        <v>0</v>
+        <v>0.98010639671468369</v>
       </c>
       <c r="Z66" s="0">
         <v>0</v>
@@ -13662,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="AW66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX66" s="0">
         <v>0</v>
@@ -13707,10 +13707,10 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.59047126383641535</v>
       </c>
       <c r="BM66" s="0">
-        <v>0</v>
+        <v>0.69293696036053853</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13719,12 +13719,12 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.53743640594390851</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13748,7 +13748,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="0">
-        <v>0</v>
+        <v>0.80836831617033267</v>
       </c>
       <c r="J67" s="0">
         <v>0</v>
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="AT67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
@@ -13925,15 +13925,15 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.83747921075000742</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.51785493085398826</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13981,7 +13981,7 @@
         <v>0</v>
       </c>
       <c r="R68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68" s="0">
         <v>0</v>
@@ -14083,7 +14083,7 @@
         <v>0</v>
       </c>
       <c r="AZ68" s="0">
-        <v>0</v>
+        <v>0.94111707613561824</v>
       </c>
       <c r="BA68" s="0">
         <v>0</v>
@@ -14122,13 +14122,13 @@
         <v>0</v>
       </c>
       <c r="BM68" s="0">
-        <v>0</v>
+        <v>0.80930595823546914</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.73365443176208411</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject43.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject43.xlsx
@@ -340,7 +340,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.58613098984786993</v>
+        <v>0.65218286411666981</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>0.67948813420904797</v>
       </c>
       <c r="E3" s="0">
-        <v>0.86063841493371296</v>
+        <v>0.94153891426821357</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.61409531707333875</v>
+        <v>0.67948813420904797</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0.74452846691618424</v>
       </c>
       <c r="F4" s="0">
-        <v>0.72199306298386368</v>
+        <v>0.86670710703313969</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0.94153891426821357</v>
       </c>
       <c r="D5" s="0">
-        <v>0.67610259519744609</v>
+        <v>0.74452846691618424</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="AV6" s="0">
-        <v>0.63529101675570854</v>
+        <v>0.72639468444361999</v>
       </c>
       <c r="AW6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.71392285820726209</v>
+        <v>0.76626627416271054</v>
       </c>
       <c r="F7" s="0">
-        <v>0.72228407204853262</v>
+        <v>0.96522711567920805</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0.58057463159823108</v>
+        <v>0.97598866651325755</v>
       </c>
       <c r="I7" s="0">
-        <v>0.65277578437130357</v>
+        <v>0.77213249032962783</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.71940583922666357</v>
+        <v>0.79559211456229106</v>
       </c>
       <c r="G8" s="0">
         <v>0.97598866651325755</v>
@@ -1797,7 +1797,7 @@
         <v>0.77213249032962783</v>
       </c>
       <c r="H9" s="0">
-        <v>0.66877745352225038</v>
+        <v>0.99602637499204816</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="0">
-        <v>0.54310562614121427</v>
+        <v>0.80266758663149929</v>
       </c>
       <c r="AB9" s="0">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="BO9" s="0">
-        <v>0.61375252662563495</v>
+        <v>0.80836831617033267</v>
       </c>
       <c r="BP9" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.51726281383385997</v>
+        <v>0.99757209894392407</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="0">
-        <v>0.51480196629941954</v>
+        <v>0.91794318245369011</v>
       </c>
       <c r="U10" s="0">
         <v>0</v>
@@ -2215,13 +2215,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>0.74609984199485413</v>
+        <v>0.89079100970386826</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0.61110285843500023</v>
+        <v>0.61198154840837227</v>
       </c>
       <c r="M11" s="0">
         <v>0.75844298347525285</v>
@@ -2630,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.67019435778749936</v>
+        <v>0.75844298347525285</v>
       </c>
       <c r="L13" s="0">
-        <v>0.64134738071786312</v>
+        <v>0.98727694315090664</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.53222227196974514</v>
+        <v>0.6597614681261057</v>
       </c>
       <c r="M14" s="0">
-        <v>0.73514170047288641</v>
+        <v>0.92687106685050114</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0.63468068832162605</v>
+        <v>0.79420746299656619</v>
       </c>
       <c r="P14" s="0">
-        <v>0.67255190553078481</v>
+        <v>0.88970390422441881</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="AH14" s="0">
-        <v>0.68091758567353833</v>
+        <v>0.83068972733752511</v>
       </c>
       <c r="AI14" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.80317010783564724</v>
+        <v>0.90118397705801634</v>
       </c>
       <c r="N15" s="0">
         <v>0.79420746299656619</v>
@@ -3060,7 +3060,7 @@
         <v>0.90458810120846944</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.69429265718925715</v>
+        <v>0.95056510409308381</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0.88970390422441881</v>
       </c>
       <c r="O16" s="0">
-        <v>0.88782093972767107</v>
+        <v>0.90458810120846944</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="BH17" s="0">
-        <v>0.84113129234211337</v>
+        <v>0.84169442575037512</v>
       </c>
       <c r="BI17" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0.66846850108685574</v>
+        <v>0.78037466934243538</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.60609361735040457</v>
+        <v>0.75235562254996269</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.61372666230399031</v>
+        <v>0.91368850146770875</v>
       </c>
       <c r="T18" s="0">
-        <v>0.80421613974828765</v>
+        <v>0.85035661934897544</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="BC19" s="0">
-        <v>0.67479167701861154</v>
+        <v>0.73744211347952215</v>
       </c>
       <c r="BD19" s="0">
         <v>0</v>
@@ -4302,10 +4302,10 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0.50269270987965098</v>
+        <v>0.79790725972304433</v>
       </c>
       <c r="T21" s="0">
-        <v>0.86046480464050612</v>
+        <v>0.99988027029157944</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="BN21" s="0">
-        <v>0.68527116259236354</v>
+        <v>0.79863034015606726</v>
       </c>
       <c r="BO21" s="0">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0.52106750868185348</v>
+        <v>0.7986990993805525</v>
       </c>
       <c r="U22" s="0">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="0">
-        <v>0.96820821075310315</v>
+        <v>0.97817421097217272</v>
       </c>
       <c r="N23" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.62951022888939878</v>
+        <v>0.69972993651789117</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.60379475784699155</v>
+        <v>0.80056587177645355</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -5141,16 +5141,16 @@
         <v>0.80056587177645355</v>
       </c>
       <c r="X25" s="0">
-        <v>0.61401709846831598</v>
+        <v>0.72021154142757204</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.57210422723760612</v>
+        <v>0.71551828197401723</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.58287505867883094</v>
+        <v>0.73941477082326101</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="BN25" s="0">
-        <v>0.61946029031716821</v>
+        <v>0.98010639671468369</v>
       </c>
       <c r="BO25" s="0">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0.59475025626389333</v>
+        <v>0.6062743451515693</v>
       </c>
       <c r="AB26" s="0">
         <v>0.7709034105437691</v>
@@ -5484,7 +5484,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.58547553967468691</v>
+        <v>0.87553703580610542</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="0">
-        <v>0.66193751298630032</v>
+        <v>0.70795770037764949</v>
       </c>
       <c r="L27" s="0">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.52934577329835397</v>
+        <v>0.73782391773855938</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.51600740137821877</v>
+        <v>0.7709034105437691</v>
       </c>
       <c r="AA28" s="0">
         <v>0.73782391773855938</v>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="AR28" s="0">
-        <v>0.76406249711657637</v>
+        <v>0.89494251920921708</v>
       </c>
       <c r="AS28" s="0">
         <v>0</v>
@@ -5959,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="0">
-        <v>0.52482914283565707</v>
+        <v>0.62936429912896208</v>
       </c>
       <c r="W29" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.77980036313540091</v>
+        <v>0.90308509275029758</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.56982027601081242</v>
+        <v>0.59896420369273173</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.59613218540739588</v>
+        <v>0.82266940050154092</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0.90379066316961187</v>
+        <v>0.93314220195845599</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.81629306476261476</v>
+        <v>0.82523479754490248</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="BJ31" s="0">
-        <v>0.79251799053675187</v>
+        <v>0.84941216674985387</v>
       </c>
       <c r="BK31" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0.8288533636614932</v>
+        <v>0.93196421841772881</v>
       </c>
       <c r="AE32" s="0">
         <v>0.93314220195845599</v>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="BI32" s="0">
-        <v>0.51071524944897528</v>
+        <v>0.89871736226672405</v>
       </c>
       <c r="BJ32" s="0">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0.82523479754490248</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.67139657406213016</v>
+        <v>0.8013599903155455</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="BM33" s="0">
-        <v>0.5384554558042558</v>
+        <v>0.76939296529213053</v>
       </c>
       <c r="BN33" s="0">
         <v>0</v>
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0.54079696355711548</v>
+        <v>0.9025138390905878</v>
       </c>
       <c r="AJ34" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.62378659400217851</v>
+        <v>0.72273984741356767</v>
       </c>
       <c r="AH35" s="0">
         <v>0.9025138390905878</v>
@@ -7240,7 +7240,7 @@
         <v>0.75338552343786547</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.67053005706077262</v>
+        <v>0.92684308758270606</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.51684373562354247</v>
+        <v>0.75338552343786547</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>0.92684308758270606</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.81418725721514162</v>
+        <v>0.95489172402098843</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0.90382806937096516</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.50521708937421872</v>
+        <v>0.92788932111207145</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.5453053587217529</v>
+        <v>0.70598663557535413</v>
       </c>
       <c r="B38" s="0">
         <v>0</v>
@@ -7855,10 +7855,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.86155389492444545</v>
+        <v>0.92820601779961942</v>
       </c>
       <c r="AK38" s="0">
-        <v>0.58906817062565442</v>
+        <v>0.90382806937096516</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0.93515081899326979</v>
       </c>
       <c r="AN38" s="0">
-        <v>0.73382883416307387</v>
+        <v>0.74256150564179202</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8067,13 +8067,13 @@
         <v>0.92788932111207145</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.92659965078952322</v>
+        <v>0.93515081899326979</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.52165486144439122</v>
+        <v>0.78316331876721135</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="0">
-        <v>0.65559568609275787</v>
+        <v>0.93628236402949705</v>
       </c>
       <c r="AC40" s="0">
         <v>0</v>
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>0.63657706443034567</v>
+        <v>0.83644449493560713</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0.98248116739122215</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.51285802172117556</v>
+        <v>0.72244894253550518</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8691,16 +8691,16 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.53687177659941188</v>
+        <v>0.79071936920357433</v>
       </c>
       <c r="AO42" s="0">
-        <v>0.55047737867031077</v>
+        <v>0.98248116739122215</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.55344680705518112</v>
+        <v>0.73513744472451692</v>
       </c>
       <c r="AR42" s="0">
         <v>0.72544098733427387</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="0">
-        <v>0.58011353742698701</v>
+        <v>0.73655203091819565</v>
       </c>
       <c r="C43" s="0">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="0">
-        <v>0.67182264504641021</v>
+        <v>0.76879396285022783</v>
       </c>
       <c r="H43" s="0">
         <v>0</v>
@@ -8885,7 +8885,7 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="0">
-        <v>0.67196402097732777</v>
+        <v>0.68447693268695509</v>
       </c>
       <c r="AK43" s="0">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.69223320630905549</v>
+        <v>0.72544098733427387</v>
       </c>
       <c r="AQ44" s="0">
         <v>0</v>
@@ -9118,10 +9118,10 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0.69072551171499041</v>
+        <v>0.94564230079484535</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.61631900827404507</v>
+        <v>0.93462676994978966</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="AZ44" s="0">
-        <v>0.54741165066460029</v>
+        <v>0.76727811582352135</v>
       </c>
       <c r="BA44" s="0">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0.72283478490893027</v>
+        <v>0.83639261037013479</v>
       </c>
       <c r="AU45" s="0">
         <v>0.8075731000695332</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.55743765711160043</v>
+        <v>0.93293939136391901</v>
       </c>
       <c r="AV46" s="0">
         <v>0.92642463656045804</v>
@@ -9575,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="BH46" s="0">
-        <v>0.51919353174962812</v>
+        <v>0.83229288650887445</v>
       </c>
       <c r="BI46" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0.76369462646688402</v>
+        <v>0.8075731000695332</v>
       </c>
       <c r="AT47" s="0">
         <v>0.93293939136391901</v>
@@ -9745,10 +9745,10 @@
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0.61088997406955903</v>
+        <v>0.90596265881485172</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.78019447221389859</v>
+        <v>0.97821520386324379</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.58631046247724761</v>
+        <v>0.92642463656045804</v>
       </c>
       <c r="AU48" s="0">
         <v>0.90596265881485172</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>0.67750689791494645</v>
+        <v>0.77121916438177696</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="0">
-        <v>0.66858296942706308</v>
+        <v>0.9011953121516284</v>
       </c>
       <c r="Q50" s="0">
         <v>0</v>
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="AA50" s="0">
-        <v>0.65518600946677941</v>
+        <v>0.83451063134168146</v>
       </c>
       <c r="AB50" s="0">
         <v>0</v>
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="0">
-        <v>0.51893315186701106</v>
+        <v>0.85210191380940126</v>
       </c>
       <c r="Y51" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0.79474776793969071</v>
+        <v>0.86584200100986197</v>
       </c>
       <c r="AX51" s="0">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.51073078549601403</v>
+        <v>0.85329607094332072</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0.75290632424948201</v>
+        <v>0.79710338998759167</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="BP52" s="0">
-        <v>0.90034364260478195</v>
+        <v>0.94111707613561824</v>
       </c>
     </row>
     <row r="53">
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="0">
-        <v>0.82900833194687462</v>
+        <v>0.86298233547242642</v>
       </c>
       <c r="O53" s="0">
         <v>0</v>
@@ -11109,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="0">
-        <v>0.57182088346056759</v>
+        <v>0.65251895312777719</v>
       </c>
       <c r="W54" s="0">
         <v>0</v>
@@ -11190,7 +11190,7 @@
         <v>0</v>
       </c>
       <c r="AW54" s="0">
-        <v>0.72420875287062381</v>
+        <v>0.85135504655070626</v>
       </c>
       <c r="AX54" s="0">
         <v>0</v>
@@ -11202,13 +11202,13 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.68002384186044684</v>
+        <v>0.80414258874156319</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.79944772892468396</v>
+        <v>0.94111639968962613</v>
       </c>
       <c r="BD54" s="0">
         <v>0.90428064783950379</v>
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="AM55" s="0">
-        <v>0.57916655832994801</v>
+        <v>0.76767528625735104</v>
       </c>
       <c r="AN55" s="0">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.5603498737870809</v>
+        <v>0.68039442159056573</v>
       </c>
       <c r="BE55" s="0">
         <v>0.96122345631486117</v>
@@ -11608,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="AY56" s="0">
-        <v>0.6902209210629856</v>
+        <v>0.75168107836192011</v>
       </c>
       <c r="AZ56" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0.64022947585351953</v>
+        <v>0.90428064783950379</v>
       </c>
       <c r="BC56" s="0">
         <v>0.68039442159056573</v>
@@ -11626,10 +11626,10 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0.72377613860751411</v>
+        <v>0.76045313744162812</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.56636553221446906</v>
+        <v>0.75793693882245461</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11733,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="0">
-        <v>0.56058186573153779</v>
+        <v>0.82454998725378692</v>
       </c>
       <c r="Y57" s="0">
         <v>0</v>
@@ -11778,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="AM57" s="0">
-        <v>0.76340255897399634</v>
+        <v>0.78582677526975797</v>
       </c>
       <c r="AN57" s="0">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.72313179905149649</v>
+        <v>0.96122345631486117</v>
       </c>
       <c r="BD57" s="0">
         <v>0.76045313744162812</v>
@@ -11978,7 +11978,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="0">
-        <v>0.50827255744609912</v>
+        <v>0.77952565203670199</v>
       </c>
       <c r="AL58" s="0">
         <v>0</v>
@@ -12235,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="BB59" s="0">
-        <v>0.73345907917480846</v>
+        <v>0.85281967256401625</v>
       </c>
       <c r="BC59" s="0">
         <v>0</v>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.51043745222482384</v>
+        <v>0.65924145366984743</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>0.56108238285747758</v>
+        <v>0.6899579902675762</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12671,10 +12671,10 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.68412144744750447</v>
+        <v>0.9635210840052848</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.53498440767284805</v>
+        <v>0.83748929451610987</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0.57655688523848037</v>
+        <v>0.92092988628000905</v>
       </c>
       <c r="BI62" s="0">
         <v>0.9635210840052848</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="0">
-        <v>0.55050601943599609</v>
+        <v>0.86218405206990945</v>
       </c>
       <c r="D63" s="0">
         <v>0</v>
@@ -13289,16 +13289,16 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0.66713896928009708</v>
+        <v>0.84220973008058642</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.73767106104012736</v>
+        <v>0.836338008345899</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.82875215865479657</v>
+        <v>0.95772382501379116</v>
       </c>
       <c r="BN64" s="0">
         <v>0.65066521597981164</v>
@@ -13474,7 +13474,7 @@
         <v>0</v>
       </c>
       <c r="BC65" s="0">
-        <v>0.79770738455454682</v>
+        <v>0.82769990744862243</v>
       </c>
       <c r="BD65" s="0">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.51530611111222457</v>
+        <v>0.69293696036053853</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13530,10 +13530,10 @@
         <v>0</v>
       </c>
       <c r="E66" s="0">
-        <v>0.76605911098595469</v>
+        <v>0.8862784697344428</v>
       </c>
       <c r="F66" s="0">
-        <v>0.79372644654000757</v>
+        <v>0.8332430136424489</v>
       </c>
       <c r="G66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.59047126383641535</v>
+        <v>0.65066521597981164</v>
       </c>
       <c r="BM66" s="0">
         <v>0.69293696036053853</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.53743640594390851</v>
+        <v>0.99322681252559497</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>0.51785493085398826</v>
+        <v>0.8206131237141856</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14122,13 +14122,13 @@
         <v>0</v>
       </c>
       <c r="BM68" s="0">
-        <v>0.80930595823546914</v>
+        <v>0.99293433991397351</v>
       </c>
       <c r="BN68" s="0">
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.73365443176208411</v>
+        <v>0.83747921075000742</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
